--- a/Documentazione/gantt_consuntivo.xlsx
+++ b/Documentazione/gantt_consuntivo.xlsx
@@ -24,33 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Analisi dei requisiti</t>
-  </si>
-  <si>
-    <t>02.09</t>
-  </si>
-  <si>
-    <t>09.09</t>
-  </si>
-  <si>
-    <t>16.09</t>
-  </si>
-  <si>
-    <t>23.09</t>
-  </si>
-  <si>
-    <t>30.09</t>
-  </si>
-  <si>
-    <t>07.10</t>
-  </si>
-  <si>
-    <t>14.10</t>
-  </si>
-  <si>
-    <t>21.10</t>
   </si>
   <si>
     <t>Documentazione</t>
@@ -68,26 +44,17 @@
     <t>Test</t>
   </si>
   <si>
-    <t>28.10</t>
-  </si>
-  <si>
-    <t>Consegna prodotto</t>
-  </si>
-  <si>
     <t>Consegna documentazione</t>
   </si>
   <si>
-    <t>Redesign sketchup</t>
-  </si>
-  <si>
-    <t>27.10</t>
+    <t>Consegna implementazione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,18 +63,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -136,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -145,69 +121,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,44 +152,44 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -260,19 +197,30 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -282,132 +230,152 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,181 +656,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.77734375" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="31.21875" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.77734375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="C1" s="5">
+        <v>9.09</v>
+      </c>
+      <c r="D1" s="5">
+        <v>16.09</v>
+      </c>
+      <c r="E1" s="5">
+        <v>23.09</v>
+      </c>
+      <c r="F1" s="5">
+        <v>30.09</v>
+      </c>
+      <c r="G1" s="5">
+        <v>7.1</v>
+      </c>
+      <c r="H1" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="I1" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="J1" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="K1" s="6">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="17" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="11"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="11"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3"/>
-      <c r="K7" s="11"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
